--- a/biology/Botanique/Maranta_leuconeura/Maranta_leuconeura.xlsx
+++ b/biology/Botanique/Maranta_leuconeura/Maranta_leuconeura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maranta leuconeura est une espèce de plantes à fleurs de la famille des Marantaceae originaire du Brésil et du Vénézuela.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante aux feuilles elliptiques décoratives.
 </t>
@@ -544,12 +558,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Variété erythroneura
-Maranta leuconeura var. erythroneura, appelé aussi Maranta tricolor, a un feuillage très décoratif. c'est une plante d'intérieur fréquemment cultivée. Elle apprécie l'humidité.
-Variété kerchoveana
-Maranta leuconeura var. kerchoveana a des feuilles marquées de six à huit taches sombres. Ses feuilles opposées ont la particularité de se replier l'une contre l'autre la nuit. Elle est aussi cultivée comme une plante d'intérieur. L'humidité ambiante lui est nécessaire, ses feuilles supportent mal l'air sec.
-Variété leuconeura
-Variété  massangeana</t>
+          <t>Variété erythroneura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maranta leuconeura var. erythroneura, appelé aussi Maranta tricolor, a un feuillage très décoratif. c'est une plante d'intérieur fréquemment cultivée. Elle apprécie l'humidité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maranta_leuconeura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maranta_leuconeura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variété kerchoveana</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maranta leuconeura var. kerchoveana a des feuilles marquées de six à huit taches sombres. Ses feuilles opposées ont la particularité de se replier l'une contre l'autre la nuit. Elle est aussi cultivée comme une plante d'intérieur. L'humidité ambiante lui est nécessaire, ses feuilles supportent mal l'air sec.
+</t>
         </is>
       </c>
     </row>
